--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1881450.768689675</v>
+        <v>1877145.052313604</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>197.4083929851558</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>283.2502426857015</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.3208427877755</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571568</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>78.29200324836498</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>329.64259793109</v>
+        <v>369.3088179022125</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.7761935836344</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>17.7694312401339</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>13.37642554686328</v>
+        <v>20.72279572932659</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>132.73287872902</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>191.5948276414184</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.1584054594684</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>78.14939830226078</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>91.66636605273428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>104.7777418077832</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9065924712593</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>11.56087338713413</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,16 +3720,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.4665281367401</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>113.5413580759688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2307.009759042411</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1304.217875522719</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>918.4296229244749</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>507.4437181348673</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>493.5203140734582</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>563.0344460825052</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.203741822952</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.241224882541</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>961.9755262757901</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E5" t="n">
-        <v>961.9755262757901</v>
+        <v>81.15903730168839</v>
       </c>
       <c r="F5" t="n">
-        <v>550.9896214861826</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>133.0258133843695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.803581887074</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1621.605546178111</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.605546178111</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>1621.605546178111</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>1235.817293579867</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F8" t="n">
-        <v>824.8313887902593</v>
+        <v>426.9821918225993</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>192.4307036906658</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>745.243961936865</v>
       </c>
       <c r="M8" t="n">
-        <v>1491.354506998273</v>
+        <v>1376.961772920177</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2551.430645747101</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.071304439191</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1621.605546178111</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>1621.605546178111</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1154.550102024319</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1947.349985492879</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2106.86229816164</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>443.9963345583446</v>
+        <v>854.2802780048897</v>
       </c>
       <c r="C10" t="n">
-        <v>275.0601516304378</v>
+        <v>685.3440950769829</v>
       </c>
       <c r="D10" t="n">
-        <v>275.0601516304378</v>
+        <v>535.2274556646471</v>
       </c>
       <c r="E10" t="n">
-        <v>127.1470580480446</v>
+        <v>387.314362082254</v>
       </c>
       <c r="F10" t="n">
-        <v>127.1470580480446</v>
+        <v>240.4244145843437</v>
       </c>
       <c r="G10" t="n">
-        <v>127.1470580480446</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>127.1470580480446</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
         <v>71.81756957972706</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>846.4373785321145</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>625.6447993885844</v>
+        <v>1035.928742835129</v>
       </c>
     </row>
     <row r="11">
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5126,22 +5126,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5229,10 +5229,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5600,22 +5600,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811332</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532263</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408905</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>950.7540666811332</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.7540666811332</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1938.286391947399</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1648.869221910438</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1420.879671012421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>776.4664207350971</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>628.553327152704</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>481.6633796547936</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>314.4672803696736</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>172.7554492118716</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1341.109076706663</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.119525808646</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>542.9134462654469</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2381.235169913446</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>2978.613657539998</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3606.211621094605</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>4158.121351333892</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327652</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,40 +6919,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1889.844516861991</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400717</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768879</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,40 +7162,40 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3642.838752636078</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>699.73118040114</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2332.274843099484</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>35.04072454780376</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>106.8604465378989</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>352.6670952725999</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>191.9420782949371</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>79.42624789262584</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>273.1465727897277</v>
+        <v>265.8002026072644</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.1148277476187</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.42624789262638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>3.116438016304755</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>194.8566322838567</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>147.3599015160448</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>39.70888054695304</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>134.873089259435</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>67.48492792567578</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="13">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907541</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
@@ -26352,10 +26352,10 @@
         <v>544823.954790754</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
@@ -26444,16 +26444,16 @@
         <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825959</v>
+        <v>-328546.1780825963</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319485</v>
+        <v>261421.7011319482</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381535</v>
+        <v>105617.8950381536</v>
       </c>
       <c r="E6" t="n">
-        <v>-333028.8029806424</v>
+        <v>-333376.1822349991</v>
       </c>
       <c r="F6" t="n">
-        <v>438023.8884001639</v>
+        <v>437676.5091458074</v>
       </c>
       <c r="G6" t="n">
-        <v>438023.8884001639</v>
+        <v>437676.509145807</v>
       </c>
       <c r="H6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.509145807</v>
       </c>
       <c r="I6" t="n">
-        <v>438023.8884001638</v>
+        <v>437676.5091458073</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.669207571</v>
+        <v>261253.2899532141</v>
       </c>
       <c r="K6" t="n">
-        <v>438023.888400164</v>
+        <v>437676.509145807</v>
       </c>
       <c r="L6" t="n">
-        <v>438023.8884001641</v>
+        <v>437676.509145807</v>
       </c>
       <c r="M6" t="n">
-        <v>313815.3776921055</v>
+        <v>313467.9984377486</v>
       </c>
       <c r="N6" t="n">
-        <v>438023.8884001643</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="O6" t="n">
-        <v>438023.888400164</v>
+        <v>437676.5091458072</v>
       </c>
       <c r="P6" t="n">
-        <v>438023.8884001638</v>
+        <v>437676.5091458071</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>167.8644987858518</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.67253007865565</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>12.3443491923824</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>393.7163208359958</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>245.6307695159922</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>61.51520314918844</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>83.27430601484679</v>
+        <v>43.60808604372426</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>68.49036429578257</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>200.8152221119609</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31846,7 +31846,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31864,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32098,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32791,10 +32791,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>340.7767527663067</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33505,7 +33505,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33517,10 +33517,10 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q36" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,7 +34456,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>118.4378503807253</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>295.4457120181086</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>533.9775360348269</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35269,7 +35269,7 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>301.7295808477642</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35430,10 +35430,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35728,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35746,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36439,10 +36439,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37165,10 +37165,10 @@
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q36" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,7 +38104,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1877145.052313604</v>
+        <v>1878905.58261639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>283.2502426857015</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>22.31124795984768</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>13.15972490571568</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.12824135545194</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.1498336210771</v>
+        <v>229.5889480231529</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3088179022125</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>311.0749555769581</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>79.28604738509091</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.7694312401339</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>137.9792024346624</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.839588425939337</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G19" t="n">
-        <v>132.73287872902</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>78.14939830226078</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>11.56087338713413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>121.8000472740352</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>918.4296229244749</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>507.4437181348673</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>493.5203140734582</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2674.612476917366</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>81.15903730168839</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2656.615513891503</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245968</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4786,40 +4786,40 @@
         <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F8" t="n">
-        <v>426.9821918225993</v>
+        <v>785.2478904293492</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>368.1601086657767</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>75.17723181374774</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>192.4307036906654</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>745.2439619368646</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1376.961772920176</v>
       </c>
       <c r="N8" t="n">
         <v>2004.269440980023</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2551.4306457471</v>
       </c>
       <c r="P8" t="n">
         <v>2662.164970996627</v>
@@ -4846,10 +4846,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>639.260235998764</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1279.805585465869</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1947.349985492879</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2106.86229816164</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>854.2802780048897</v>
+        <v>134.0298983709613</v>
       </c>
       <c r="C10" t="n">
-        <v>685.3440950769829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>535.2274556646471</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>387.314362082254</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>240.4244145843437</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -5001,13 +5001,13 @@
         <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>764.4604932427485</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>536.4709423447312</v>
       </c>
       <c r="Y10" t="n">
-        <v>1035.928742835129</v>
+        <v>315.678363201201</v>
       </c>
     </row>
     <row r="11">
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>244.2098454714582</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>739.5354516872168</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2307.590151828076</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>599.6019060180513</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>451.6888124356582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
-        <v>451.6888124356582</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5834,16 +5834,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5901,7 +5901,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6308,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.402603663004</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>776.4664207350971</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>776.4664207350971</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>628.553327152704</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>481.6633796547936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>314.4672803696736</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>172.7554492118716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6691,31 +6691,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6782,19 +6782,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171305</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892237</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768879</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588918</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473703</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="38">
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>390.823249958218</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,16 +7736,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8455,7 +8455,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>35.04072454780332</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>191.9420782949371</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>79.42624789262584</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G19" t="n">
-        <v>32.79125956324884</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>3.116438016304755</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393024</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>134.873089259435</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>182.9484181982414</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>45.44677382459267</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872562.1463868553</v>
+        <v>872562.1463868554</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="11">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="F2" t="n">
         <v>544823.9547907541</v>
-      </c>
-      <c r="F2" t="n">
-        <v>544823.9547907542</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
@@ -26334,28 +26334,28 @@
         <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907541</v>
       </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808062</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682745</v>
@@ -26438,10 +26438,10 @@
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
@@ -26450,7 +26450,7 @@
         <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682726</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682744</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825963</v>
+        <v>-328546.1780825962</v>
       </c>
       <c r="C6" t="n">
         <v>261421.7011319482</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381536</v>
+        <v>105617.8950381538</v>
       </c>
       <c r="E6" t="n">
-        <v>-333376.1822349991</v>
+        <v>-333063.540906078</v>
       </c>
       <c r="F6" t="n">
-        <v>437676.5091458074</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="G6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="H6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="I6" t="n">
-        <v>437676.5091458073</v>
+        <v>437989.1504747281</v>
       </c>
       <c r="J6" t="n">
-        <v>261253.2899532141</v>
+        <v>261565.9312821352</v>
       </c>
       <c r="K6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="L6" t="n">
-        <v>437676.509145807</v>
+        <v>437989.1504747284</v>
       </c>
       <c r="M6" t="n">
-        <v>313467.9984377486</v>
+        <v>313780.6397666701</v>
       </c>
       <c r="N6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="O6" t="n">
-        <v>437676.5091458072</v>
+        <v>437989.1504747286</v>
       </c>
       <c r="P6" t="n">
-        <v>437676.5091458071</v>
+        <v>437989.1504747286</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>40.67253007865565</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>32.16715461496402</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352323</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>393.7163208359958</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>14.3501612193598</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.98780970275092</v>
+        <v>22.54869530067512</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>43.60808604372426</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>3.965928498257426</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>87.96077371353692</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>200.8152221119609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31287,7 +31287,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>138.5955196772193</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32083,16 +32083,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32101,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,10 +32329,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34216,34 +34216,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M42" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>118.4378503807249</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>301.7295808477642</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.7540807028602912</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35749,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,10 +35977,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36676,22 +36676,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M42" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
